--- a/biology/Zoologie/Anopheles_quadrimaculatus/Anopheles_quadrimaculatus.xlsx
+++ b/biology/Zoologie/Anopheles_quadrimaculatus/Anopheles_quadrimaculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anopheles quadrimaculatus est une espèce américaine d'insectes diptères, un moustique porteur de Plasmodium agent du paludisme. Son aire de distribution naturelle s'étend vers le Canada au nord jusqu'aux Everglades au sud.
 </t>
